--- a/biology/Botanique/Jardin_botanique_de_Shanghai/Jardin_botanique_de_Shanghai.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Shanghai/Jardin_botanique_de_Shanghai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Shanghai est un jardin botanique de quatre-vingt-un hectares situé en Chine à Shanghai, dans le district de Xuhui. C'est l'un des parcs les plus importants de la ville. Il a été inauguré en 1978 après quatre ans de construction et d'aménagement.
 </t>
@@ -511,7 +523,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le jardin botanique est divisé en vastes secteurs spécialisés en magnolias, pivoines, azalées, roses, Osmanthus, fougères, bambous, Acer et conifères. Le jardin d'orchidées est considéré comme le meilleur de toute la Chine.
 On peut également distinguer:
